--- a/biology/Botanique/Bugle_de_Genève/Bugle_de_Genève.xlsx
+++ b/biology/Botanique/Bugle_de_Genève/Bugle_de_Genève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bugle_de_Gen%C3%A8ve</t>
+          <t>Bugle_de_Genève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ajuga genevensis
 La Bugle de Genève (Ajuga genevensis L.) est une plante herbacée vivace de la famille des Lamiacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bugle_de_Gen%C3%A8ve</t>
+          <t>Bugle_de_Genève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom scientifique
-Ajuga genevensis L. (1753)
-Noms vernaculaires
-En français, cette plante est nommée Bugle de Genève. Elle est nommée par les anglophones green ajuga, carpet bugle, geneva bugleweed, blue bugleweed ou encore blue bugle (aux USA)[1].
-Étymologie
-« Bugle » vient du latin abigere, déformation populaire de abiga qui signifie "plante qui a le pouvoir de provoquer l’avortement".
-« Ajuga » vient du latin a (privatif) + jugum (joug) = corolle sans lèvre supérieure.
-« genevensis » vient également du latin et signifie "de Genève".
+          <t>Nom scientifique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuga genevensis L. (1753)
 </t>
         </is>
       </c>
@@ -532,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bugle_de_Gen%C3%A8ve</t>
+          <t>Bugle_de_Genève</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,27 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Port général
-Ajuga genevensis est une herbacée vivace de 10 à 40 cm de hauteur dont la tige est dressée.
-Appareil végétatif
-Tige
-Ajuga genevensis est une herbacée vivace de 10 à 40 cm de haut. La tige est dressée, simple à partir de la souche et poilue [1,4,6–10].
-Feuilles
-Ses feuilles sont opposées et simples, les basilaires sont entières, allongées, obovales ou oblongues et pétiolées. Celles de la tige sont également entières et obovales ou oblongues mais moins allongées et non-pétiolées. Ses feuilles sont à limbe mince, velues sur les deux faces et à bord crénelé ou denté avec un sommet obtus [1,4,6–11].
-Appareil reproducteur
-Fleur
-La fleur est hermaphrodite, de couleur bleu vif, rarement rose avec une absence de pédoncule et mesurant de 12 à 20 mm. Les pétales sont soudés et forment la corolle. Cette corolle est irrégulière, présente des lèvres supérieures très réduites et bilobées ainsi que des lèvres inférieures plus grandes, trilobées (avec le lobe central qui est ''entaillé''). Ces fleurs sont donc bien zygomorphes. On observe la présence de quatre étamines de différentes tailles (deux longues, deux courtes) qui s'ancrent dans la corolle. Le pistil quant à lui est composé d'un style surmonté d'un stigmate bifide. Le calice est quasiment régulier, présente cinq lobes velus en forme de dents [1,4,6–11].
-Inflorescence
-Ses fleurs forment des épis cylindriques feuillés qui sont composés de verticilles séparés par des bractées (qui rétrécissent en taille du bas vers le haut de l'inflorescence). Ces bractées se retrouvent à la base des fleurs et sont sinuées-crénelées ou trilobées et d'ordinaire bleuâtre-violacée [1,4,6–11].
-Fruit
-Le fruit de Ajuga genevensis est akène déhiscent et schizocarpe à quatre sections. Il est poilu et ovoïde, sa taille peut varier de 3 à 8 mm et sa couleur se rapproche du gris-brun [6,7].
-Espèces voisines
-Elle ressemble à la bugle rampante (Ajuga reptans L. 1753). Cependant elle s'en distingue  car elle ne se propage pas via des stolons bien qu'elle soit rhizomateuse. Sa tige est à section carrée comme chez toutes les Lamiaceae et celle-ci est entièrement recouverte de poils contrairement à Ajuga reptans qui présente uniquement deux faces poilues[1,4,7,8].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, cette plante est nommée Bugle de Genève. Elle est nommée par les anglophones green ajuga, carpet bugle, geneva bugleweed, blue bugleweed ou encore blue bugle (aux USA).
 </t>
         </is>
       </c>
@@ -578,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bugle_de_Gen%C3%A8ve</t>
+          <t>Bugle_de_Genève</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,13 +595,336 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Bugle » vient du latin abigere, déformation populaire de abiga qui signifie "plante qui a le pouvoir de provoquer l’avortement".
+« Ajuga » vient du latin a (privatif) + jugum (joug) = corolle sans lèvre supérieure.
+« genevensis » vient également du latin et signifie "de Genève".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Port général</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuga genevensis est une herbacée vivace de 10 à 40 cm de hauteur dont la tige est dressée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tige</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuga genevensis est une herbacée vivace de 10 à 40 cm de haut. La tige est dressée, simple à partir de la souche et poilue [1,4,6–10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles sont opposées et simples, les basilaires sont entières, allongées, obovales ou oblongues et pétiolées. Celles de la tige sont également entières et obovales ou oblongues mais moins allongées et non-pétiolées. Ses feuilles sont à limbe mince, velues sur les deux faces et à bord crénelé ou denté avec un sommet obtus [1,4,6–11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur est hermaphrodite, de couleur bleu vif, rarement rose avec une absence de pédoncule et mesurant de 12 à 20 mm. Les pétales sont soudés et forment la corolle. Cette corolle est irrégulière, présente des lèvres supérieures très réduites et bilobées ainsi que des lèvres inférieures plus grandes, trilobées (avec le lobe central qui est ''entaillé''). Ces fleurs sont donc bien zygomorphes. On observe la présence de quatre étamines de différentes tailles (deux longues, deux courtes) qui s'ancrent dans la corolle. Le pistil quant à lui est composé d'un style surmonté d'un stigmate bifide. Le calice est quasiment régulier, présente cinq lobes velus en forme de dents [1,4,6–11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Inflorescence</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs forment des épis cylindriques feuillés qui sont composés de verticilles séparés par des bractées (qui rétrécissent en taille du bas vers le haut de l'inflorescence). Ces bractées se retrouvent à la base des fleurs et sont sinuées-crénelées ou trilobées et d'ordinaire bleuâtre-violacée [1,4,6–11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de Ajuga genevensis est akène déhiscent et schizocarpe à quatre sections. Il est poilu et ovoïde, sa taille peut varier de 3 à 8 mm et sa couleur se rapproche du gris-brun [6,7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espèces voisines</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle ressemble à la bugle rampante (Ajuga reptans L. 1753). Cependant elle s'en distingue  car elle ne se propage pas via des stolons bien qu'elle soit rhizomateuse. Sa tige est à section carrée comme chez toutes les Lamiaceae et celle-ci est entièrement recouverte de poils contrairement à Ajuga reptans qui présente uniquement deux faces poilues[1,4,7,8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Taxonomie et classification(s)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Synonymes
-Ajuga alpina L., 1767 
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuga alpina L., 1767 
 Ajuga astolonosa Schur, 1866 
 Ajuga cryptostolon Lagr.-Foss., 1845 
 Ajuga genevensis var. glabrifolia Cariot &amp; St.-Lag., 1889 
@@ -613,81 +938,298 @@
 Bugula genevensis (L.) Crantz, 1766 
 Bugula pyramidalis Lam., 1779 
 Teucrium genevense (L.) Crantz, 1769
-Sous-espèces
-Ajuga genevensis subsp. pyramidalis (L.) Bonnier &amp; Layens
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxonomie et classification(s)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuga genevensis subsp. pyramidalis (L.) Bonnier &amp; Layens
 Ajuga genevensis var. glabrifolia Cariot &amp; St.-Lag.
 Ajuga genevensis var. knaffii Wolfner
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bugle_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Région d'origine et régions de naturalisation
-A. genevensis se retrouve abondamment en Europe centrale (native de France), en Asie occidentale et boréale mais aussi en Amérique du nord où elle a été introduite [1,4–6].
-Habitat
-C’est une plante rudérale dont les habitats types sont les pelouses basophiles médioeuropéennes. Elle se développe facilement sur les talus de voies ferrées, les terres de jachère, jardins, parcs [1,4–6]. Elle est héliophile (besoin de lumière), mésoxérophile (plante qui vit dans des lieux secs mais ne survit pas à des sécheresses extrêmes), neutrocalcicole (se dit d'une plante se rencontrant sur un sol basique, riche en cations échangeables (substrats calcaires, marneux) à neutre) [1,4,10].
-Cycle de vie
-Il s'agit d'une plante vivace. La floraison a lieu entre avril et août [1]. 
-Pollinisateurs
-A. genevensis est mellifère, elle produit du nectar qui attire les pollinisateurs telles que les abeilles qui avec celui-ci produisent du miel. La bugle a une pollinisation entomogame, c’est-à-dire que le pollen est essentiellement véhiculé par des insectes. La dissémination de ses graines est epizoochore, elles sont transportées par des animaux [6,10].
-Interactions avec d'autres espèces
-Le bugle de Genève s’hybride facilement avec des espèces proches telles que la bugle rampante (Ajuga reptans) ou encore la bugle pyramidale (Ajuga pyramidalis).
-Maladies
-Les bugles en général sont sensibles à l’oïdium.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bugle_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Région d'origine et régions de naturalisation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. genevensis se retrouve abondamment en Europe centrale (native de France), en Asie occidentale et boréale mais aussi en Amérique du nord où elle a été introduite [1,4–6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante rudérale dont les habitats types sont les pelouses basophiles médioeuropéennes. Elle se développe facilement sur les talus de voies ferrées, les terres de jachère, jardins, parcs [1,4–6]. Elle est héliophile (besoin de lumière), mésoxérophile (plante qui vit dans des lieux secs mais ne survit pas à des sécheresses extrêmes), neutrocalcicole (se dit d'une plante se rencontrant sur un sol basique, riche en cations échangeables (substrats calcaires, marneux) à neutre) [1,4,10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace. La floraison a lieu entre avril et août . 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pollinisateurs</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. genevensis est mellifère, elle produit du nectar qui attire les pollinisateurs telles que les abeilles qui avec celui-ci produisent du miel. La bugle a une pollinisation entomogame, c’est-à-dire que le pollen est essentiellement véhiculé par des insectes. La dissémination de ses graines est epizoochore, elles sont transportées par des animaux [6,10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Interactions avec d'autres espèces</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bugle de Genève s’hybride facilement avec des espèces proches telles que la bugle rampante (Ajuga reptans) ou encore la bugle pyramidale (Ajuga pyramidalis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bugles en général sont sensibles à l’oïdium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bugle_de_Genève</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bugle_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est cultivée par l’homme comme plante ornementale. Ces feuilles ont un goût amer et peuvent se manger en soupe ou en salade.
 Elle possède aussi des propriétés médicinales. Elle était surtout utilisée au Moyen Âge contre les hémorragies et les diarrhées. A notre époque elle est encore utilisée en homéopathie pour ses propriétés astringentes, contre les ulcérations buccales ainsi que les angines.  est aussi vulnéraire, nettoie et aide à la cicatrisation des plaies et ulcères. Elle peut aussi s’utiliser en médecine vétérinaire [2,3,9,12,13].
